--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_Block Bootstrapping_No_Lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_Block Bootstrapping_No_Lineal_Estacionario_SETAR.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.9669088320946859</v>
+        <v>0.977952015510797</v>
       </c>
       <c r="D2">
-        <v>0.9734752738666526</v>
+        <v>0.9808388988468704</v>
       </c>
       <c r="E2">
-        <v>0.8592565594490598</v>
+        <v>0.8938345121703961</v>
       </c>
       <c r="F2">
-        <v>0.8803273145425441</v>
+        <v>0.9113812386444586</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9669088320946859</v>
+        <v>0.977952015510797</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.9265746969532143</v>
+        <v>0.9330881026500384</v>
       </c>
       <c r="E3">
-        <v>0.8869386826568475</v>
+        <v>0.9004553961666277</v>
       </c>
       <c r="F3">
-        <v>0.8998160835967706</v>
+        <v>0.8923606465832117</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9734752738666526</v>
+        <v>0.9808388988468704</v>
       </c>
       <c r="C4">
-        <v>0.9265746969532143</v>
+        <v>0.9330881026500384</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.7792469623953076</v>
+        <v>0.7350034373220531</v>
       </c>
       <c r="F4">
-        <v>0.8042851769845567</v>
+        <v>0.8180493084429803</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8592565594490598</v>
+        <v>0.8938345121703961</v>
       </c>
       <c r="C5">
-        <v>0.8869386826568475</v>
+        <v>0.9004553961666277</v>
       </c>
       <c r="D5">
-        <v>0.7792469623953076</v>
+        <v>0.7350034373220531</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.9799676417849832</v>
+        <v>0.9776962784895031</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8803273145425441</v>
+        <v>0.9113812386444586</v>
       </c>
       <c r="C6">
-        <v>0.8998160835967706</v>
+        <v>0.8923606465832117</v>
       </c>
       <c r="D6">
-        <v>0.8042851769845567</v>
+        <v>0.8180493084429803</v>
       </c>
       <c r="E6">
-        <v>0.9799676417849832</v>
+        <v>0.9776962784895031</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0415072203585637</v>
+        <v>0.02813448171661221</v>
       </c>
       <c r="D2">
-        <v>-0.03326731742115294</v>
+        <v>-0.02444980859885563</v>
       </c>
       <c r="E2">
-        <v>0.1774160997559371</v>
+        <v>0.1359007548887671</v>
       </c>
       <c r="F2">
-        <v>0.1506346803335293</v>
+        <v>0.1133258852422692</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.0415072203585637</v>
+        <v>-0.02813448171661221</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-0.09220376307184906</v>
+        <v>-0.08548271405322977</v>
       </c>
       <c r="E3">
-        <v>0.1422546468005681</v>
+        <v>0.1273745628569715</v>
       </c>
       <c r="F3">
-        <v>0.125960448878053</v>
+        <v>0.1378001744382444</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.03326731742115294</v>
+        <v>0.02444980859885563</v>
       </c>
       <c r="C4">
-        <v>0.09220376307184906</v>
+        <v>0.08548271405322977</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2804583495106964</v>
+        <v>0.3452980656664401</v>
       </c>
       <c r="F4">
-        <v>0.2479424627238785</v>
+        <v>0.2344242761364861</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.1774160997559371</v>
+        <v>-0.1359007548887671</v>
       </c>
       <c r="C5">
-        <v>-0.1422546468005681</v>
+        <v>-0.1273745628569715</v>
       </c>
       <c r="D5">
-        <v>-0.2804583495106964</v>
+        <v>-0.3452980656664401</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-0.02512259287271656</v>
+        <v>-0.0284609105736368</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.1506346803335293</v>
+        <v>-0.1133258852422692</v>
       </c>
       <c r="C6">
-        <v>-0.125960448878053</v>
+        <v>-0.1378001744382444</v>
       </c>
       <c r="D6">
-        <v>-0.2479424627238785</v>
+        <v>-0.2344242761364861</v>
       </c>
       <c r="E6">
-        <v>0.02512259287271656</v>
+        <v>0.0284609105736368</v>
       </c>
       <c r="F6">
         <v>0</v>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_Block Bootstrapping_No_Lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_Block Bootstrapping_No_Lineal_Estacionario_SETAR.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.977952015510797</v>
+        <v>0.4386140321572518</v>
       </c>
       <c r="D2">
-        <v>0.9808388988468704</v>
+        <v>0.3508516453339412</v>
       </c>
       <c r="E2">
-        <v>0.8938345121703961</v>
+        <v>0.6139407699380923</v>
       </c>
       <c r="F2">
-        <v>0.9113812386444586</v>
+        <v>0.9388984456900824</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.977952015510797</v>
+        <v>0.4386140321572518</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.9330881026500384</v>
+        <v>0.766596301930367</v>
       </c>
       <c r="E3">
-        <v>0.9004553961666277</v>
+        <v>0.6979223669880166</v>
       </c>
       <c r="F3">
-        <v>0.8923606465832117</v>
+        <v>0.2972369834017081</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9808388988468704</v>
+        <v>0.3508516453339412</v>
       </c>
       <c r="C4">
-        <v>0.9330881026500384</v>
+        <v>0.766596301930367</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.7350034373220531</v>
+        <v>0.4880306132041494</v>
       </c>
       <c r="F4">
-        <v>0.8180493084429803</v>
+        <v>0.285352196983728</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8938345121703961</v>
+        <v>0.6139407699380923</v>
       </c>
       <c r="C5">
-        <v>0.9004553961666277</v>
+        <v>0.6979223669880166</v>
       </c>
       <c r="D5">
-        <v>0.7350034373220531</v>
+        <v>0.4880306132041494</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.9776962784895031</v>
+        <v>0.5727138293580181</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9113812386444586</v>
+        <v>0.9388984456900824</v>
       </c>
       <c r="C6">
-        <v>0.8923606465832117</v>
+        <v>0.2972369834017081</v>
       </c>
       <c r="D6">
-        <v>0.8180493084429803</v>
+        <v>0.285352196983728</v>
       </c>
       <c r="E6">
-        <v>0.9776962784895031</v>
+        <v>0.5727138293580181</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.02813448171661221</v>
+        <v>-0.7888578667776849</v>
       </c>
       <c r="D2">
-        <v>-0.02444980859885563</v>
+        <v>-0.9531871298546687</v>
       </c>
       <c r="E2">
-        <v>0.1359007548887671</v>
+        <v>-0.5117266288160545</v>
       </c>
       <c r="F2">
-        <v>0.1133258852422692</v>
+        <v>-0.07753545898870451</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.02813448171661221</v>
+        <v>0.7888578667776849</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-0.08548271405322977</v>
+        <v>-0.3005276980072168</v>
       </c>
       <c r="E3">
-        <v>0.1273745628569715</v>
+        <v>0.3932465001926798</v>
       </c>
       <c r="F3">
-        <v>0.1378001744382444</v>
+        <v>1.067689781661885</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.02444980859885563</v>
+        <v>0.9531871298546687</v>
       </c>
       <c r="C4">
-        <v>0.08548271405322977</v>
+        <v>0.3005276980072168</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3452980656664401</v>
+        <v>0.705290302540752</v>
       </c>
       <c r="F4">
-        <v>0.2344242761364861</v>
+        <v>1.095018848378037</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.1359007548887671</v>
+        <v>0.5117266288160545</v>
       </c>
       <c r="C5">
-        <v>-0.1273745628569715</v>
+        <v>-0.3932465001926798</v>
       </c>
       <c r="D5">
-        <v>-0.3452980656664401</v>
+        <v>-0.705290302540752</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-0.0284609105736368</v>
+        <v>0.5726116200450998</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.1133258852422692</v>
+        <v>0.07753545898870451</v>
       </c>
       <c r="C6">
-        <v>-0.1378001744382444</v>
+        <v>-1.067689781661885</v>
       </c>
       <c r="D6">
-        <v>-0.2344242761364861</v>
+        <v>-1.095018848378037</v>
       </c>
       <c r="E6">
-        <v>0.0284609105736368</v>
+        <v>-0.5726116200450998</v>
       </c>
       <c r="F6">
         <v>0</v>
